--- a/sample/numberplace/test/scenario_nps.xlsx
+++ b/sample/numberplace/test/scenario_nps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\VBAUnit\sample\numberplace\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4AEE46-2D72-4352-92BF-868444F7892B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0260855-F033-46B5-A9D3-0CF54A213AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="1245" windowWidth="18900" windowHeight="12315" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="13065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clear" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>テストID</t>
     <phoneticPr fontId="1"/>
@@ -465,6 +465,63 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:F3"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="68.5" customWidth="1"/>
+    <col min="4" max="4" width="33.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B2:F3"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
@@ -496,13 +553,16 @@
     </row>
     <row r="3" spans="2:6">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -514,66 +574,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="68.5" customWidth="1"/>
-    <col min="4" max="4" width="33.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{810AEED8-4B16-41AC-9D37-77A3C8E34A67}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>

--- a/sample/numberplace/test/scenario_nps.xlsx
+++ b/sample/numberplace/test/scenario_nps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\VBAUnit\sample\numberplace\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0260855-F033-46B5-A9D3-0CF54A213AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBF498E-F7A7-48B4-BBAD-AD58977249FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="13065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="13065" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clear" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>テストID</t>
     <phoneticPr fontId="1"/>
@@ -94,7 +94,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>derivation.py</t>
+    <t>derivation_basic.py</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -465,8 +465,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -503,9 +503,6 @@
       </c>
       <c r="D3" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -561,9 +558,6 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -579,8 +573,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/sample/numberplace/test/scenario_nps.xlsx
+++ b/sample/numberplace/test/scenario_nps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\VBAUnit\sample\numberplace\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBF498E-F7A7-48B4-BBAD-AD58977249FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059FC9AD-BD4E-4F1D-B57F-70A534D6B61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="13065" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="13065" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clear" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>テストID</t>
     <phoneticPr fontId="1"/>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>derivation_basic.py</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Derive-02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Deriving all candidates on the board</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>derivation_board.py</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -571,10 +583,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{810AEED8-4B16-41AC-9D37-77A3C8E34A67}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B2:F3"/>
+  <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -612,7 +624,18 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
         <v>5</v>
       </c>
     </row>

--- a/sample/numberplace/test/scenario_nps.xlsx
+++ b/sample/numberplace/test/scenario_nps.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\VBAUnit\sample\numberplace\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059FC9AD-BD4E-4F1D-B57F-70A534D6B61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD8383E-7A5A-423A-94BB-0B094DC40AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="13065" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="13065" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clear" sheetId="3" r:id="rId1"/>
     <sheet name="Read" sheetId="1" r:id="rId2"/>
     <sheet name="derivation" sheetId="5" r:id="rId3"/>
+    <sheet name="search" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>テストID</t>
     <phoneticPr fontId="1"/>
@@ -107,6 +108,18 @@
   </si>
   <si>
     <t>derivation_board.py</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Search-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Searcing leaf note.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>search.py</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -206,6 +219,20 @@
     <tableColumn id="3" xr3:uid="{543C4FAE-50B8-48EC-BB79-54FB3BDEB27C}" name="モジュール"/>
     <tableColumn id="4" xr3:uid="{4BFAF45D-D0FE-4D61-BD76-EBA4DDB56372}" name="実行"/>
     <tableColumn id="5" xr3:uid="{C2A9F663-FCB3-4889-9D13-B6952E31A7A2}" name="結果"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CA880E31-D6AE-40F9-8266-34F8150F8E94}" name="TestSetTable45" displayName="TestSetTable45" ref="B2:F7" totalsRowShown="0">
+  <autoFilter ref="B2:F7" xr:uid="{37A840DC-F62D-4C3A-B985-B113F7A3E3B9}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{08F2EAD9-B5FF-4173-97ED-BD6ED2A65182}" name="テストID"/>
+    <tableColumn id="2" xr3:uid="{7EDEDCA1-5E19-4A1D-B46B-F682705C1F97}" name="説明"/>
+    <tableColumn id="3" xr3:uid="{28D22FC3-A77B-45A0-94F5-6E5DD3D79F4A}" name="モジュール"/>
+    <tableColumn id="4" xr3:uid="{4A8151BD-F647-40D3-B33A-3E54CCA9E2A5}" name="実行"/>
+    <tableColumn id="5" xr3:uid="{9D5E6C42-D388-4D49-97D3-0308066983EA}" name="結果"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -585,8 +612,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -635,7 +662,61 @@
       <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B958F130-B9B8-4A03-B402-29F277FA1389}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="B2:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="68.5" customWidth="1"/>
+    <col min="4" max="4" width="33.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/sample/numberplace/test/scenario_nps.xlsx
+++ b/sample/numberplace/test/scenario_nps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\VBAUnit\sample\numberplace\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD8383E-7A5A-423A-94BB-0B094DC40AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED414B1-6D2E-4B1F-A02F-9251A48DD5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="13065" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="13065" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clear" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>テストID</t>
     <phoneticPr fontId="1"/>
@@ -115,11 +115,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Searcing leaf note.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>search.py</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Search-02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Searching leaf node.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Solve problem.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>solve.py</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Search-03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Full process.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>solvepuzzle.py</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -675,10 +699,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B958F130-B9B8-4A03-B402-29F277FA1389}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="B2:F3"/>
+  <dimension ref="B2:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -711,12 +735,34 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
         <v>5</v>
       </c>
     </row>

--- a/sample/numberplace/test/scenario_nps.xlsx
+++ b/sample/numberplace/test/scenario_nps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\VBAUnit\sample\numberplace\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED414B1-6D2E-4B1F-A02F-9251A48DD5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4AB360-1427-479E-962F-05E2F2480A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="13065" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/sample/numberplace/test/scenario_nps.xlsx
+++ b/sample/numberplace/test/scenario_nps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\VBAUnit\sample\numberplace\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4AB360-1427-479E-962F-05E2F2480A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42D8FCE-4109-4E29-A34D-C3FA18D2F0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="13065" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -702,7 +702,7 @@
   <dimension ref="B2:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -740,6 +740,9 @@
       <c r="D3" t="s">
         <v>19</v>
       </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
@@ -761,9 +764,6 @@
       </c>
       <c r="D5" t="s">
         <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/sample/numberplace/test/scenario_nps.xlsx
+++ b/sample/numberplace/test/scenario_nps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\VBAUnit\sample\numberplace\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42D8FCE-4109-4E29-A34D-C3FA18D2F0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2834D2-D6A9-4D5A-9733-E351C0E17B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="13065" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="13065" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clear" sheetId="3" r:id="rId1"/>
@@ -740,9 +740,6 @@
       <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
@@ -764,6 +761,9 @@
       </c>
       <c r="D5" t="s">
         <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/sample/numberplace/test/scenario_nps.xlsx
+++ b/sample/numberplace/test/scenario_nps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\VBAUnit\sample\numberplace\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2834D2-D6A9-4D5A-9733-E351C0E17B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779A15D6-DD9A-4D0A-B957-8C9CC762F5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="13065" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="13065" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clear" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>テストID</t>
     <phoneticPr fontId="1"/>
@@ -144,6 +144,18 @@
   </si>
   <si>
     <t>solvepuzzle.py</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Derive-03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Deriving hard problem.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>derivation_hard.py</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -634,74 +646,9 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{810AEED8-4B16-41AC-9D37-77A3C8E34A67}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B2:F4"/>
+  <dimension ref="B2:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="68.5" customWidth="1"/>
-    <col min="4" max="4" width="33.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B958F130-B9B8-4A03-B402-29F277FA1389}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="B2:F5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -732,6 +679,82 @@
     </row>
     <row r="3" spans="2:6">
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B958F130-B9B8-4A03-B402-29F277FA1389}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="B2:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="68.5" customWidth="1"/>
+    <col min="4" max="4" width="33.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
